--- a/data/Iteration_TestData.xlsx
+++ b/data/Iteration_TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5789" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="1148">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -3195,9 +3195,6 @@
     <t>RFR</t>
   </si>
   <si>
-    <t>vignesh_g</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -3445,6 +3442,30 @@
   </si>
   <si>
     <t>KLMNO</t>
+  </si>
+  <si>
+    <t>BarWithLineWidgetTest</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>Change_Line_Stroke_Color_Chart_Style</t>
+  </si>
+  <si>
+    <t>Change_Line_Bullet_Color_Chart_Style</t>
+  </si>
+  <si>
+    <t>#3366ff</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Change_Bullet_Type_Chart_Style</t>
+  </si>
+  <si>
+    <t>Change_Stroke_Width_Chart_Style</t>
   </si>
   <si>
     <t>muthuram.g@trackdfect.com</t>
@@ -3922,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ165"/>
   <sheetViews>
-    <sheetView topLeftCell="Q156" workbookViewId="0">
-      <selection activeCell="P164" sqref="P164:U165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,7 +3976,7 @@
     <col min="27" max="27" width="28" customWidth="1"/>
     <col min="28" max="28" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
-    <col min="30" max="30" width="31.5703125" customWidth="1"/>
+    <col min="30" max="30" width="31.28515625" customWidth="1"/>
     <col min="31" max="31" width="22.140625" customWidth="1"/>
     <col min="32" max="32" width="20.85546875" customWidth="1"/>
     <col min="33" max="33" width="22.5703125" customWidth="1"/>
@@ -4203,11 +4224,11 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1056</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1057</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>53</v>
@@ -16613,37 +16634,37 @@
         <v>681</v>
       </c>
       <c r="Q148" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R148" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="R148" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="S148" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U148" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="T148" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U148" s="3" t="s">
-        <v>1063</v>
-      </c>
       <c r="V148" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W148" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="W148" s="3" t="s">
+      <c r="X148" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="X148" s="3" t="s">
+      <c r="Y148" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="Y148" s="3" t="s">
+      <c r="Z148" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="Z148" s="3" t="s">
+      <c r="AA148" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="AA148" s="3" t="s">
-        <v>1070</v>
       </c>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
@@ -16725,13 +16746,13 @@
         <v>67</v>
       </c>
       <c r="S149" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T149" s="4" t="s">
         <v>139</v>
       </c>
       <c r="U149" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V149" s="4" t="s">
         <v>101</v>
@@ -16779,7 +16800,7 @@
     </row>
     <row r="150" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>619</v>
@@ -16848,10 +16869,10 @@
         <v>638</v>
       </c>
       <c r="X150" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y150" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Z150" s="3" t="s">
         <v>639</v>
@@ -16958,13 +16979,13 @@
         <v>69</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W151" s="4" t="s">
         <v>94</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y151" s="4" t="s">
         <v>635</v>
@@ -17013,7 +17034,7 @@
     </row>
     <row r="152" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>619</v>
@@ -17034,7 +17055,7 @@
         <v>647</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>623</v>
@@ -17085,10 +17106,10 @@
         <v>638</v>
       </c>
       <c r="Y152" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Z152" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA152" s="3" t="s">
         <v>639</v>
@@ -17219,13 +17240,13 @@
         <v>69</v>
       </c>
       <c r="W153" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="X153" s="4" t="s">
         <v>94</v>
       </c>
       <c r="Y153" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Z153" s="4" t="s">
         <v>635</v>
@@ -17295,7 +17316,7 @@
     </row>
     <row r="154" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>619</v>
@@ -17409,7 +17430,7 @@
         <v>705</v>
       </c>
       <c r="AM154" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AN154" s="3"/>
       <c r="AO154" s="3"/>
@@ -17479,10 +17500,10 @@
         <v>292</v>
       </c>
       <c r="S155" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T155" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="T155" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="U155" s="4" t="s">
         <v>78</v>
@@ -17497,7 +17518,7 @@
         <v>69</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Z155" s="4" t="s">
         <v>94</v>
@@ -17557,7 +17578,7 @@
     </row>
     <row r="156" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>619</v>
@@ -17572,22 +17593,22 @@
         <v>647</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="I156" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="J156" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="K156" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>715</v>
@@ -17635,10 +17656,10 @@
         <v>638</v>
       </c>
       <c r="AA156" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AB156" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC156" s="3" t="s">
         <v>639</v>
@@ -17677,7 +17698,7 @@
         <v>705</v>
       </c>
       <c r="AO156" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AP156" s="3"/>
       <c r="AQ156" s="3"/>
@@ -17724,7 +17745,7 @@
         <v>714</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>64</v>
@@ -17745,10 +17766,10 @@
         <v>292</v>
       </c>
       <c r="S157" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T157" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="T157" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="U157" s="4" t="s">
         <v>78</v>
@@ -17763,13 +17784,13 @@
         <v>69</v>
       </c>
       <c r="Y157" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Z157" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AA157" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AB157" s="4" t="s">
         <v>635</v>
@@ -17827,7 +17848,7 @@
     </row>
     <row r="158" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>619</v>
@@ -17842,22 +17863,22 @@
         <v>647</v>
       </c>
       <c r="F158" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="K158" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>715</v>
@@ -17905,13 +17926,13 @@
         <v>638</v>
       </c>
       <c r="AA158" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AB158" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AC158" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD158" s="3" t="s">
         <v>639</v>
@@ -17941,22 +17962,22 @@
         <v>700</v>
       </c>
       <c r="AM158" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AN158" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AO158" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="AO158" s="3" t="s">
+      <c r="AP158" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="AP158" s="3" t="s">
+      <c r="AQ158" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="AQ158" s="3" t="s">
+      <c r="AR158" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="AR158" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="AS158" s="3" t="s">
         <v>703</v>
@@ -17968,7 +17989,7 @@
         <v>705</v>
       </c>
       <c r="AV158" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AW158" s="3"/>
       <c r="AX158" s="3"/>
@@ -18008,7 +18029,7 @@
         <v>714</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>64</v>
@@ -18029,10 +18050,10 @@
         <v>292</v>
       </c>
       <c r="S159" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="T159" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="T159" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="U159" s="4" t="s">
         <v>78</v>
@@ -18047,13 +18068,13 @@
         <v>69</v>
       </c>
       <c r="Y159" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Z159" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AA159" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="AB159" s="4" t="s">
         <v>690</v>
@@ -18089,7 +18110,7 @@
         <v>101</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AN159" s="4" t="s">
         <v>101</v>
@@ -18125,7 +18146,7 @@
     </row>
     <row r="160" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>619</v>
@@ -18137,13 +18158,13 @@
         <v>618</v>
       </c>
       <c r="E160" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>1113</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>626</v>
@@ -18170,10 +18191,10 @@
         <v>636</v>
       </c>
       <c r="P160" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q160" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="Q160" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="R160" s="3" t="s">
         <v>682</v>
@@ -18191,7 +18212,7 @@
         <v>639</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>641</v>
@@ -18264,10 +18285,10 @@
         <v>292</v>
       </c>
       <c r="N161" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O161" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="O161" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="P161" s="4" t="s">
         <v>78</v>
@@ -18282,7 +18303,7 @@
         <v>69</v>
       </c>
       <c r="T161" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="U161" s="4" t="s">
         <v>94</v>
@@ -18329,22 +18350,22 @@
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1119</v>
-      </c>
       <c r="C162" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E162" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>682</v>
@@ -18356,19 +18377,19 @@
         <v>681</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M162" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N162" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>1133</v>
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
@@ -18412,13 +18433,13 @@
     <row r="163" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>1122</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>1123</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>78</v>
@@ -18433,22 +18454,22 @@
         <v>69</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J163" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>1128</v>
-      </c>
       <c r="L163" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>67</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
@@ -18491,7 +18512,7 @@
     </row>
     <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>886</v>
@@ -18515,10 +18536,10 @@
         <v>647</v>
       </c>
       <c r="I164" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J164" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>623</v>
@@ -18533,7 +18554,7 @@
         <v>627</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>628</v>
@@ -18553,16 +18574,36 @@
       <c r="U164" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
+      <c r="V164" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y164" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z164" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA164" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB164" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AC164" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AD164" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AE164" s="3" t="s">
+        <v>1146</v>
+      </c>
       <c r="AF164" s="3"/>
       <c r="AG164" s="3"/>
       <c r="AH164" s="3"/>
@@ -18627,7 +18668,7 @@
         <v>65</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P165" s="4" t="s">
         <v>67</v>
@@ -18647,16 +18688,36 @@
       <c r="U165" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
-      <c r="Y165" s="4"/>
-      <c r="Z165" s="4"/>
-      <c r="AA165" s="4"/>
-      <c r="AB165" s="4"/>
-      <c r="AC165" s="4"/>
-      <c r="AD165" s="4"/>
-      <c r="AE165" s="4"/>
+      <c r="V165" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W165" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X165" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z165" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AA165" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB165" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC165" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AD165" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
       <c r="AH165" s="4"/>
@@ -18719,9 +18780,10 @@
     <hyperlink ref="AO17" r:id="rId1"/>
     <hyperlink ref="E17" r:id="rId2"/>
     <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -18730,7 +18792,7 @@
   <dimension ref="A1:AZ165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19000,10 +19062,10 @@
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1000</v>
@@ -19321,7 +19383,7 @@
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
     </row>
-    <row r="8" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -19447,7 +19509,7 @@
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
     </row>
-    <row r="10" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>96</v>
       </c>
@@ -19513,7 +19575,7 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
     </row>
-    <row r="11" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>94</v>
@@ -19974,7 +20036,7 @@
         <v>1009</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>115</v>
@@ -31381,37 +31443,37 @@
         <v>681</v>
       </c>
       <c r="Q148" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R148" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="R148" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="S148" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U148" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="T148" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U148" s="3" t="s">
-        <v>1063</v>
-      </c>
       <c r="V148" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W148" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="W148" s="3" t="s">
+      <c r="X148" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="X148" s="3" t="s">
+      <c r="Y148" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="Y148" s="3" t="s">
+      <c r="Z148" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="Z148" s="3" t="s">
+      <c r="AA148" s="3" t="s">
         <v>1069</v>
-      </c>
-      <c r="AA148" s="3" t="s">
-        <v>1070</v>
       </c>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
@@ -31493,13 +31555,13 @@
         <v>67</v>
       </c>
       <c r="S149" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T149" s="4" t="s">
         <v>139</v>
       </c>
       <c r="U149" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V149" s="4" t="s">
         <v>101</v>
@@ -31547,7 +31609,7 @@
     </row>
     <row r="150" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>619</v>
@@ -31616,10 +31678,10 @@
         <v>638</v>
       </c>
       <c r="X150" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y150" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Z150" s="3" t="s">
         <v>639</v>
@@ -31726,13 +31788,13 @@
         <v>69</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W151" s="4" t="s">
         <v>94</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y151" s="4" t="s">
         <v>635</v>
@@ -31781,7 +31843,7 @@
     </row>
     <row r="152" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>619</v>
@@ -31802,7 +31864,7 @@
         <v>647</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>623</v>
@@ -31853,10 +31915,10 @@
         <v>638</v>
       </c>
       <c r="Y152" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Z152" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AA152" s="3" t="s">
         <v>639</v>
@@ -31942,7 +32004,7 @@
         <v>691</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>624</v>
@@ -31987,13 +32049,13 @@
         <v>69</v>
       </c>
       <c r="W153" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="X153" s="4" t="s">
         <v>94</v>
       </c>
       <c r="Y153" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Z153" s="4" t="s">
         <v>635</v>
@@ -32063,7 +32125,7 @@
     </row>
     <row r="154" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>619</v>
@@ -32177,7 +32239,7 @@
         <v>705</v>
       </c>
       <c r="AM154" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AN154" s="3"/>
       <c r="AO154" s="3"/>
@@ -32265,7 +32327,7 @@
         <v>69</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Z155" s="4" t="s">
         <v>94</v>
@@ -32323,9 +32385,9 @@
       <c r="AY155" s="4"/>
       <c r="AZ155" s="4"/>
     </row>
-    <row r="156" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>619</v>
@@ -32340,22 +32402,22 @@
         <v>647</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="H156" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="I156" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="J156" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="K156" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>715</v>
@@ -32403,10 +32465,10 @@
         <v>638</v>
       </c>
       <c r="AA156" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AB156" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC156" s="3" t="s">
         <v>639</v>
@@ -32445,7 +32507,7 @@
         <v>705</v>
       </c>
       <c r="AO156" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AP156" s="3"/>
       <c r="AQ156" s="3"/>
@@ -32492,7 +32554,7 @@
         <v>1039</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>64</v>
@@ -32531,13 +32593,13 @@
         <v>69</v>
       </c>
       <c r="Y157" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Z157" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AA157" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AB157" s="4" t="s">
         <v>635</v>
@@ -32595,7 +32657,7 @@
     </row>
     <row r="158" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>619</v>
@@ -32610,22 +32672,22 @@
         <v>647</v>
       </c>
       <c r="F158" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="K158" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>715</v>
@@ -32673,13 +32735,13 @@
         <v>638</v>
       </c>
       <c r="AA158" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AB158" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AC158" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AD158" s="3" t="s">
         <v>639</v>
@@ -32709,22 +32771,22 @@
         <v>700</v>
       </c>
       <c r="AM158" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AN158" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AO158" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="AO158" s="3" t="s">
+      <c r="AP158" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="AP158" s="3" t="s">
+      <c r="AQ158" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="AQ158" s="3" t="s">
+      <c r="AR158" s="3" t="s">
         <v>1108</v>
-      </c>
-      <c r="AR158" s="3" t="s">
-        <v>1109</v>
       </c>
       <c r="AS158" s="3" t="s">
         <v>703</v>
@@ -32736,7 +32798,7 @@
         <v>705</v>
       </c>
       <c r="AV158" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AW158" s="3"/>
       <c r="AX158" s="3"/>
@@ -32776,7 +32838,7 @@
         <v>1039</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>64</v>
@@ -32800,7 +32862,7 @@
         <v>235</v>
       </c>
       <c r="T159" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="U159" s="4" t="s">
         <v>78</v>
@@ -32815,13 +32877,13 @@
         <v>69</v>
       </c>
       <c r="Y159" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Z159" s="4" t="s">
         <v>94</v>
       </c>
       <c r="AA159" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AB159" s="4" t="s">
         <v>690</v>
@@ -32857,7 +32919,7 @@
         <v>101</v>
       </c>
       <c r="AM159" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AN159" s="4" t="s">
         <v>101</v>
@@ -32893,7 +32955,7 @@
     </row>
     <row r="160" spans="1:52" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>619</v>
@@ -32905,13 +32967,13 @@
         <v>618</v>
       </c>
       <c r="E160" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>1113</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>626</v>
@@ -32938,10 +33000,10 @@
         <v>636</v>
       </c>
       <c r="P160" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q160" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="Q160" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="R160" s="3" t="s">
         <v>682</v>
@@ -32959,7 +33021,7 @@
         <v>639</v>
       </c>
       <c r="W160" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="X160" s="3" t="s">
         <v>641</v>
@@ -33035,7 +33097,7 @@
         <v>235</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P161" s="4" t="s">
         <v>78</v>
@@ -33050,7 +33112,7 @@
         <v>69</v>
       </c>
       <c r="T161" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="U161" s="4" t="s">
         <v>94</v>
@@ -33097,22 +33159,22 @@
     </row>
     <row r="162" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1119</v>
-      </c>
       <c r="C162" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E162" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F162" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>682</v>
@@ -33124,19 +33186,19 @@
         <v>681</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M162" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N162" s="3" t="s">
         <v>1132</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>1133</v>
       </c>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
@@ -33180,13 +33242,13 @@
     <row r="163" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>1122</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>1123</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>78</v>
@@ -33201,22 +33263,22 @@
         <v>69</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J163" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="K163" s="4" t="s">
-        <v>1128</v>
-      </c>
       <c r="L163" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>67</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
@@ -33259,7 +33321,7 @@
     </row>
     <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>886</v>
@@ -33283,10 +33345,10 @@
         <v>647</v>
       </c>
       <c r="I164" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J164" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>623</v>
@@ -33301,7 +33363,7 @@
         <v>627</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>628</v>
@@ -33321,16 +33383,36 @@
       <c r="U164" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
+      <c r="V164" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="W164" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y164" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z164" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA164" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB164" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AC164" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AD164" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AE164" s="3" t="s">
+        <v>1146</v>
+      </c>
       <c r="AF164" s="3"/>
       <c r="AG164" s="3"/>
       <c r="AH164" s="3"/>
@@ -33395,7 +33477,7 @@
         <v>65</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P165" s="4" t="s">
         <v>67</v>
@@ -33415,16 +33497,36 @@
       <c r="U165" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
-      <c r="Y165" s="4"/>
-      <c r="Z165" s="4"/>
-      <c r="AA165" s="4"/>
-      <c r="AB165" s="4"/>
-      <c r="AC165" s="4"/>
-      <c r="AD165" s="4"/>
-      <c r="AE165" s="4"/>
+      <c r="V165" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W165" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X165" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z165" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AA165" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB165" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AC165" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AD165" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AE165" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
       <c r="AH165" s="4"/>

--- a/data/Iteration_TestData.xlsx
+++ b/data/Iteration_TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="1213">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -3597,9 +3597,6 @@
     <t>clarksonmaersk</t>
   </si>
   <si>
-    <t>shipandbunker1802</t>
-  </si>
-  <si>
     <t>Change_Project_Name</t>
   </si>
   <si>
@@ -3646,6 +3643,27 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>RadarLine_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Category_Value</t>
+  </si>
+  <si>
+    <t>Select_Group_Value</t>
+  </si>
+  <si>
+    <t>Category_DataType</t>
+  </si>
+  <si>
+    <t>Select_Y_Axis_AggregationValue</t>
+  </si>
+  <si>
+    <t>Week of the year (1-52)</t>
+  </si>
+  <si>
+    <t>shipandbunker</t>
   </si>
 </sst>
 </file>
@@ -4118,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ163"/>
+  <dimension ref="A1:AZ165"/>
   <sheetViews>
-    <sheetView topLeftCell="E134" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView topLeftCell="L158" workbookViewId="0">
+      <selection activeCell="O164" sqref="O164:O165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,10 +4494,10 @@
         <v>1188</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -4529,19 +4547,19 @@
     <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>1190</v>
+        <v>1212</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1198</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1196</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
@@ -16234,7 +16252,7 @@
         <v>199</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>686</v>
@@ -16716,10 +16734,10 @@
         <v>234</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>654</v>
+        <v>1211</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>719</v>
+        <v>642</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>587</v>
@@ -18828,7 +18846,7 @@
     </row>
     <row r="162" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>581</v>
@@ -18855,10 +18873,10 @@
         <v>595</v>
       </c>
       <c r="J162" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>1203</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>601</v>
@@ -18873,7 +18891,7 @@
         <v>603</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
@@ -18924,7 +18942,7 @@
         <v>53</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>55</v>
@@ -18945,7 +18963,7 @@
         <v>257</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>57</v>
@@ -18996,8 +19014,174 @@
       <c r="AY163" s="4"/>
       <c r="AZ163" s="4"/>
     </row>
+    <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+      <c r="AF164" s="3"/>
+      <c r="AG164" s="3"/>
+      <c r="AH164" s="3"/>
+      <c r="AI164" s="3"/>
+      <c r="AJ164" s="3"/>
+      <c r="AK164" s="3"/>
+      <c r="AL164" s="3"/>
+      <c r="AM164" s="3"/>
+      <c r="AN164" s="3"/>
+      <c r="AO164" s="3"/>
+      <c r="AP164" s="3"/>
+      <c r="AQ164" s="3"/>
+      <c r="AR164" s="3"/>
+      <c r="AS164" s="1"/>
+      <c r="AT164" s="3"/>
+      <c r="AU164" s="3"/>
+      <c r="AV164" s="3"/>
+      <c r="AW164" s="3"/>
+      <c r="AX164" s="3"/>
+      <c r="AY164" s="3"/>
+      <c r="AZ164" s="3"/>
+    </row>
+    <row r="165" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="4"/>
+      <c r="AE165" s="4"/>
+      <c r="AF165" s="4"/>
+      <c r="AG165" s="4"/>
+      <c r="AH165" s="4"/>
+      <c r="AI165" s="4"/>
+      <c r="AJ165" s="4"/>
+      <c r="AK165" s="4"/>
+      <c r="AL165" s="4"/>
+      <c r="AM165" s="4"/>
+      <c r="AN165" s="4"/>
+      <c r="AO165" s="4"/>
+      <c r="AP165" s="4"/>
+      <c r="AQ165" s="4"/>
+      <c r="AR165" s="4"/>
+      <c r="AS165" s="4"/>
+      <c r="AT165" s="4"/>
+      <c r="AU165" s="4"/>
+      <c r="AV165" s="4"/>
+      <c r="AW165" s="4"/>
+      <c r="AX165" s="4"/>
+      <c r="AY165" s="4"/>
+      <c r="AZ165" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33 E59 E141 E143 F155">
       <formula1>"Text,Numerical,Date,Categorical"</formula1>
     </dataValidation>
@@ -19028,11 +19212,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139">
       <formula1>"avg,count,distinct,first,last,max,min,sum"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149 AA151 AA153 AF155 AF157 AF159 AF161 AF163">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149 AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165">
       <formula1>"_______,...........,-----------.,-.-.-.-.-.-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J157">
       <formula1>"Start,Center,End"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>"Text,Categorical,Date"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19048,10 +19235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ163"/>
+  <dimension ref="A1:AZ165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D134" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19392,10 +19579,10 @@
         <v>1188</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -19448,16 +19635,16 @@
         <v>1189</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1193</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1194</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
@@ -31148,7 +31335,7 @@
         <v>997</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>1007</v>
@@ -33750,7 +33937,7 @@
     </row>
     <row r="162" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>581</v>
@@ -33777,10 +33964,10 @@
         <v>595</v>
       </c>
       <c r="J162" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>1203</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>601</v>
@@ -33795,7 +33982,7 @@
         <v>603</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
@@ -33846,7 +34033,7 @@
         <v>53</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>55</v>
@@ -33867,7 +34054,7 @@
         <v>257</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>57</v>
@@ -33918,8 +34105,174 @@
       <c r="AY163" s="4"/>
       <c r="AZ163" s="4"/>
     </row>
+    <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+      <c r="AF164" s="3"/>
+      <c r="AG164" s="3"/>
+      <c r="AH164" s="3"/>
+      <c r="AI164" s="3"/>
+      <c r="AJ164" s="3"/>
+      <c r="AK164" s="3"/>
+      <c r="AL164" s="3"/>
+      <c r="AM164" s="3"/>
+      <c r="AN164" s="3"/>
+      <c r="AO164" s="3"/>
+      <c r="AP164" s="3"/>
+      <c r="AQ164" s="3"/>
+      <c r="AR164" s="3"/>
+      <c r="AS164" s="1"/>
+      <c r="AT164" s="3"/>
+      <c r="AU164" s="3"/>
+      <c r="AV164" s="3"/>
+      <c r="AW164" s="3"/>
+      <c r="AX164" s="3"/>
+      <c r="AY164" s="3"/>
+      <c r="AZ164" s="3"/>
+    </row>
+    <row r="165" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+      <c r="AD165" s="4"/>
+      <c r="AE165" s="4"/>
+      <c r="AF165" s="4"/>
+      <c r="AG165" s="4"/>
+      <c r="AH165" s="4"/>
+      <c r="AI165" s="4"/>
+      <c r="AJ165" s="4"/>
+      <c r="AK165" s="4"/>
+      <c r="AL165" s="4"/>
+      <c r="AM165" s="4"/>
+      <c r="AN165" s="4"/>
+      <c r="AO165" s="4"/>
+      <c r="AP165" s="4"/>
+      <c r="AQ165" s="4"/>
+      <c r="AR165" s="4"/>
+      <c r="AS165" s="4"/>
+      <c r="AT165" s="4"/>
+      <c r="AU165" s="4"/>
+      <c r="AV165" s="4"/>
+      <c r="AW165" s="4"/>
+      <c r="AX165" s="4"/>
+      <c r="AY165" s="4"/>
+      <c r="AZ165" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139">
       <formula1>"avg,count,distinct,first,last,max,min,sum"</formula1>
     </dataValidation>
@@ -33953,11 +34306,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149">
       <formula1>"...........,-----------.,-.-.-.-.-.-,_______"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA151 AA153 AF155 AF157 AF159 AF161 AF163">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165">
       <formula1>"_______,...........,-----------.,-.-.-.-.-.-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L157">
       <formula1>"Start,Center,End"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
+      <formula1>"Text,Categorical,Date"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/Iteration_TestData.xlsx
+++ b/data/Iteration_TestData.xlsx
@@ -3342,328 +3342,328 @@
     <t>Change_Stroke_Width_Chart_Style</t>
   </si>
   <si>
+    <t>Change_X_Lable_Position_ChartStyle</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Change_Grid_Distance_ChartStyle</t>
+  </si>
+  <si>
+    <t>Card_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Card_Column_Value1</t>
+  </si>
+  <si>
+    <t>Select_Card_Column_Value2</t>
+  </si>
+  <si>
+    <t>Select_Card_Column_Value3</t>
+  </si>
+  <si>
+    <t>Card_Column_DataType_1</t>
+  </si>
+  <si>
+    <t>Select_Agg_Value1</t>
+  </si>
+  <si>
+    <t>Select_Agg_Value2</t>
+  </si>
+  <si>
+    <t>Select_Agg_Value3</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Type_Goal_Value</t>
+  </si>
+  <si>
+    <t>Type_Prefix_Value</t>
+  </si>
+  <si>
+    <t>testPrefix</t>
+  </si>
+  <si>
+    <t>Card_Icon_Select</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>Select_Position</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Select_Size</t>
+  </si>
+  <si>
+    <t>SparkLine_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Date_Value</t>
+  </si>
+  <si>
+    <t>Select_Date_GroupValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year-Month-Day Hour </t>
+  </si>
+  <si>
+    <t>Select_Categories_Value1</t>
+  </si>
+  <si>
+    <t>Select_Categories_Value2</t>
+  </si>
+  <si>
+    <t>Select_Categories_Value3</t>
+  </si>
+  <si>
+    <t>NewColumn</t>
+  </si>
+  <si>
+    <t>Select_Numericals_Value1</t>
+  </si>
+  <si>
+    <t>Select_Numericals_Value2</t>
+  </si>
+  <si>
+    <t>Select_Aggregation_Value1</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Select_Aggregation_Value2</t>
+  </si>
+  <si>
+    <t>Select_ChartType_Value1</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Select_ChartType_Value2</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Change_Periods_Value</t>
+  </si>
+  <si>
+    <t>SearchFile</t>
+  </si>
+  <si>
+    <t>Select_TableTheme</t>
+  </si>
+  <si>
+    <t>Sky Blue</t>
+  </si>
+  <si>
+    <t>Arial Black</t>
+  </si>
+  <si>
+    <t>Select_FontSize_TableFormat</t>
+  </si>
+  <si>
+    <t>Change_HeaderColor_TableFormat</t>
+  </si>
+  <si>
+    <t>#9966ff</t>
+  </si>
+  <si>
+    <t>Select_BodyFontSize_TableFomat</t>
+  </si>
+  <si>
+    <t>Select_Border_TableFormat</t>
+  </si>
+  <si>
+    <t>Select_Seperator_TableFormat</t>
+  </si>
+  <si>
+    <t>Select_RoundOffValue_TableFormat</t>
+  </si>
+  <si>
+    <t>Select_ChartTheme_ColorStyling</t>
+  </si>
+  <si>
+    <t>Quite Pale</t>
+  </si>
+  <si>
+    <t>Select_Seperator_SparkLine</t>
+  </si>
+  <si>
+    <t>#,###</t>
+  </si>
+  <si>
+    <t>Select_RoundOff_SparkLine</t>
+  </si>
+  <si>
+    <t>Change_FontColor_SparkLine</t>
+  </si>
+  <si>
+    <t>Change_FirstPOIColor_SparkLine</t>
+  </si>
+  <si>
+    <t>Change_MinPOIColor_SparkLine</t>
+  </si>
+  <si>
+    <t>Change_LastPOIColor_SparkLine</t>
+  </si>
+  <si>
+    <t>Change_MaxPOIColor_SparkLine</t>
+  </si>
+  <si>
+    <t>#ffff99</t>
+  </si>
+  <si>
+    <t>#0099cc</t>
+  </si>
+  <si>
+    <t>#ff6600</t>
+  </si>
+  <si>
+    <t>Custom_Pivot_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Groups_Column1</t>
+  </si>
+  <si>
+    <t>Select_Groups_Column2</t>
+  </si>
+  <si>
+    <t>Select_Values_Column1</t>
+  </si>
+  <si>
+    <t>Select_Values_Column2</t>
+  </si>
+  <si>
+    <t>Select_Groups_Column3</t>
+  </si>
+  <si>
+    <t>Select_From_Value</t>
+  </si>
+  <si>
+    <t>Select_To_Value</t>
+  </si>
+  <si>
+    <t>Column_Rename_Input</t>
+  </si>
+  <si>
+    <t>TestingRenameColumn</t>
+  </si>
+  <si>
+    <t>Column_Value_Deselect</t>
+  </si>
+  <si>
+    <t>Select_Table_Theme_Input</t>
+  </si>
+  <si>
+    <t>Select_FontFamily_Value</t>
+  </si>
+  <si>
+    <t>Simplified Arabic</t>
+  </si>
+  <si>
+    <t>#00ffff</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>File_Upload</t>
+  </si>
+  <si>
+    <t>Valid_CSV_FileName</t>
+  </si>
+  <si>
+    <t>InValid_FileName</t>
+  </si>
+  <si>
+    <t>Zip_File_name</t>
+  </si>
+  <si>
+    <t>clarksonmaersk</t>
+  </si>
+  <si>
+    <t>Change_Project_Name</t>
+  </si>
+  <si>
+    <t>Change_File_Name</t>
+  </si>
+  <si>
+    <t>TEST_Iteration_2</t>
+  </si>
+  <si>
+    <t>Testing_2</t>
+  </si>
+  <si>
+    <t>TEST_Iteration_1</t>
+  </si>
+  <si>
+    <t>Testing_1</t>
+  </si>
+  <si>
+    <t>InValidFile.txt</t>
+  </si>
+  <si>
+    <t>ZipFile_1.zip</t>
+  </si>
+  <si>
+    <t>ZipFile_2.zip</t>
+  </si>
+  <si>
+    <t>WaterFall_Widget_Testing</t>
+  </si>
+  <si>
+    <t>EFGHI</t>
+  </si>
+  <si>
+    <t>Change_X_Rotation_Input</t>
+  </si>
+  <si>
+    <t>Change_Y_Rotation_Input</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>ChangeRotataionVal_DataLabel</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>RadarLine_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Category_Value</t>
+  </si>
+  <si>
+    <t>Select_Group_Value</t>
+  </si>
+  <si>
+    <t>Category_DataType</t>
+  </si>
+  <si>
+    <t>Select_Y_Axis_AggregationValue</t>
+  </si>
+  <si>
+    <t>Week of the year (1-52)</t>
+  </si>
+  <si>
+    <t>shipandbunker</t>
+  </si>
+  <si>
     <t>vignesh_g</t>
-  </si>
-  <si>
-    <t>Change_X_Lable_Position_ChartStyle</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Change_Grid_Distance_ChartStyle</t>
-  </si>
-  <si>
-    <t>Card_Widget_Testing</t>
-  </si>
-  <si>
-    <t>Select_Card_Column_Value1</t>
-  </si>
-  <si>
-    <t>Select_Card_Column_Value2</t>
-  </si>
-  <si>
-    <t>Select_Card_Column_Value3</t>
-  </si>
-  <si>
-    <t>Card_Column_DataType_1</t>
-  </si>
-  <si>
-    <t>Select_Agg_Value1</t>
-  </si>
-  <si>
-    <t>Select_Agg_Value2</t>
-  </si>
-  <si>
-    <t>Select_Agg_Value3</t>
-  </si>
-  <si>
-    <t>Unique</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Type_Goal_Value</t>
-  </si>
-  <si>
-    <t>Type_Prefix_Value</t>
-  </si>
-  <si>
-    <t>testPrefix</t>
-  </si>
-  <si>
-    <t>Card_Icon_Select</t>
-  </si>
-  <si>
-    <t>anchor</t>
-  </si>
-  <si>
-    <t>Select_Position</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Select_Size</t>
-  </si>
-  <si>
-    <t>SparkLine_Widget_Testing</t>
-  </si>
-  <si>
-    <t>Select_Date_Value</t>
-  </si>
-  <si>
-    <t>Select_Date_GroupValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year-Month-Day Hour </t>
-  </si>
-  <si>
-    <t>Select_Categories_Value1</t>
-  </si>
-  <si>
-    <t>Select_Categories_Value2</t>
-  </si>
-  <si>
-    <t>Select_Categories_Value3</t>
-  </si>
-  <si>
-    <t>NewColumn</t>
-  </si>
-  <si>
-    <t>Select_Numericals_Value1</t>
-  </si>
-  <si>
-    <t>Select_Numericals_Value2</t>
-  </si>
-  <si>
-    <t>Select_Aggregation_Value1</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Select_Aggregation_Value2</t>
-  </si>
-  <si>
-    <t>Select_ChartType_Value1</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Select_ChartType_Value2</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Change_Periods_Value</t>
-  </si>
-  <si>
-    <t>SearchFile</t>
-  </si>
-  <si>
-    <t>Select_TableTheme</t>
-  </si>
-  <si>
-    <t>Sky Blue</t>
-  </si>
-  <si>
-    <t>Arial Black</t>
-  </si>
-  <si>
-    <t>Select_FontSize_TableFormat</t>
-  </si>
-  <si>
-    <t>Change_HeaderColor_TableFormat</t>
-  </si>
-  <si>
-    <t>#9966ff</t>
-  </si>
-  <si>
-    <t>Select_BodyFontSize_TableFomat</t>
-  </si>
-  <si>
-    <t>Select_Border_TableFormat</t>
-  </si>
-  <si>
-    <t>Select_Seperator_TableFormat</t>
-  </si>
-  <si>
-    <t>Select_RoundOffValue_TableFormat</t>
-  </si>
-  <si>
-    <t>Select_ChartTheme_ColorStyling</t>
-  </si>
-  <si>
-    <t>Quite Pale</t>
-  </si>
-  <si>
-    <t>Select_Seperator_SparkLine</t>
-  </si>
-  <si>
-    <t>#,###</t>
-  </si>
-  <si>
-    <t>Select_RoundOff_SparkLine</t>
-  </si>
-  <si>
-    <t>Change_FontColor_SparkLine</t>
-  </si>
-  <si>
-    <t>Change_FirstPOIColor_SparkLine</t>
-  </si>
-  <si>
-    <t>Change_MinPOIColor_SparkLine</t>
-  </si>
-  <si>
-    <t>Change_LastPOIColor_SparkLine</t>
-  </si>
-  <si>
-    <t>Change_MaxPOIColor_SparkLine</t>
-  </si>
-  <si>
-    <t>#ffff99</t>
-  </si>
-  <si>
-    <t>#0099cc</t>
-  </si>
-  <si>
-    <t>#ff6600</t>
-  </si>
-  <si>
-    <t>Custom_Pivot_Widget_Testing</t>
-  </si>
-  <si>
-    <t>Select_Groups_Column1</t>
-  </si>
-  <si>
-    <t>Select_Groups_Column2</t>
-  </si>
-  <si>
-    <t>Select_Values_Column1</t>
-  </si>
-  <si>
-    <t>Select_Values_Column2</t>
-  </si>
-  <si>
-    <t>Select_Groups_Column3</t>
-  </si>
-  <si>
-    <t>Select_From_Value</t>
-  </si>
-  <si>
-    <t>Select_To_Value</t>
-  </si>
-  <si>
-    <t>Column_Rename_Input</t>
-  </si>
-  <si>
-    <t>TestingRenameColumn</t>
-  </si>
-  <si>
-    <t>Column_Value_Deselect</t>
-  </si>
-  <si>
-    <t>Select_Table_Theme_Input</t>
-  </si>
-  <si>
-    <t>Select_FontFamily_Value</t>
-  </si>
-  <si>
-    <t>Simplified Arabic</t>
-  </si>
-  <si>
-    <t>#00ffff</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>File_Upload</t>
-  </si>
-  <si>
-    <t>Valid_CSV_FileName</t>
-  </si>
-  <si>
-    <t>InValid_FileName</t>
-  </si>
-  <si>
-    <t>Zip_File_name</t>
-  </si>
-  <si>
-    <t>clarksonmaersk</t>
-  </si>
-  <si>
-    <t>Change_Project_Name</t>
-  </si>
-  <si>
-    <t>Change_File_Name</t>
-  </si>
-  <si>
-    <t>TEST_Iteration_2</t>
-  </si>
-  <si>
-    <t>Testing_2</t>
-  </si>
-  <si>
-    <t>TEST_Iteration_1</t>
-  </si>
-  <si>
-    <t>Testing_1</t>
-  </si>
-  <si>
-    <t>InValidFile.txt</t>
-  </si>
-  <si>
-    <t>ZipFile_1.zip</t>
-  </si>
-  <si>
-    <t>ZipFile_2.zip</t>
-  </si>
-  <si>
-    <t>WaterFall_Widget_Testing</t>
-  </si>
-  <si>
-    <t>EFGHI</t>
-  </si>
-  <si>
-    <t>Change_X_Rotation_Input</t>
-  </si>
-  <si>
-    <t>Change_Y_Rotation_Input</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>ChangeRotataionVal_DataLabel</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>RadarLine_Widget_Testing</t>
-  </si>
-  <si>
-    <t>Select_Category_Value</t>
-  </si>
-  <si>
-    <t>Select_Group_Value</t>
-  </si>
-  <si>
-    <t>Category_DataType</t>
-  </si>
-  <si>
-    <t>Select_Y_Axis_AggregationValue</t>
-  </si>
-  <si>
-    <t>Week of the year (1-52)</t>
-  </si>
-  <si>
-    <t>shipandbunker</t>
   </si>
 </sst>
 </file>
@@ -4138,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ165"/>
   <sheetViews>
-    <sheetView topLeftCell="L158" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164:O165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,7 +4368,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4421,7 +4421,7 @@
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>1105</v>
+        <v>1212</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1014</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1188</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -4547,19 +4547,19 @@
     <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1196</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1197</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1194</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1195</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
@@ -16252,7 +16252,7 @@
         <v>199</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>686</v>
@@ -16734,7 +16734,7 @@
         <v>234</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>642</v>
@@ -18150,10 +18150,10 @@
         <v>1054</v>
       </c>
       <c r="AG154" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
@@ -18270,7 +18270,7 @@
         <v>1058</v>
       </c>
       <c r="AG155" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AH155" s="4" t="s">
         <v>1061</v>
@@ -18296,37 +18296,37 @@
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>1112</v>
-      </c>
       <c r="G156" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="H156" s="2" t="s">
-        <v>1120</v>
-      </c>
       <c r="I156" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
@@ -18391,10 +18391,10 @@
         <v>53</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>1084</v>
@@ -18446,91 +18446,91 @@
     </row>
     <row r="158" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>1129</v>
-      </c>
       <c r="D158" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>1133</v>
-      </c>
       <c r="G158" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="I158" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="I158" s="2" t="s">
-        <v>1137</v>
-      </c>
       <c r="J158" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K158" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="K158" s="2" t="s">
-        <v>1140</v>
-      </c>
       <c r="L158" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="P158" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q158" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="Q158" s="3" t="s">
-        <v>1150</v>
-      </c>
       <c r="R158" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S158" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="S158" s="3" t="s">
+      <c r="T158" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="T158" s="3" t="s">
+      <c r="U158" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="U158" s="3" t="s">
+      <c r="V158" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="V158" s="3" t="s">
-        <v>1156</v>
-      </c>
       <c r="W158" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="X158" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Y158" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="Y158" s="3" t="s">
+      <c r="Z158" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="Z158" s="3" t="s">
+      <c r="AA158" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AB158" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="AA158" s="3" t="s">
+      <c r="AC158" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="AB158" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AC158" s="3" t="s">
-        <v>1165</v>
       </c>
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
@@ -18562,7 +18562,7 @@
         <v>199</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>302</v>
@@ -18577,34 +18577,34 @@
         <v>234</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>924</v>
       </c>
       <c r="N159" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O159" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="O159" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="P159" s="4" t="s">
         <v>57</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R159" s="4" t="s">
         <v>256</v>
@@ -18619,10 +18619,10 @@
         <v>178</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="X159" s="4" t="s">
         <v>178</v>
@@ -18631,16 +18631,16 @@
         <v>60</v>
       </c>
       <c r="Z159" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AA159" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="AB159" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC159" s="4" t="s">
         <v>1167</v>
-      </c>
-      <c r="AC159" s="4" t="s">
-        <v>1168</v>
       </c>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
@@ -18668,40 +18668,40 @@
     </row>
     <row r="160" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="F160" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="H160" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="I160" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>1177</v>
-      </c>
       <c r="J160" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K160" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="L160" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>1019</v>
@@ -18771,34 +18771,34 @@
         <v>234</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>234</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>719</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="M161" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O161" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="O161" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="P161" s="4" t="s">
         <v>106</v>
@@ -18846,7 +18846,7 @@
     </row>
     <row r="162" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>581</v>
@@ -18873,10 +18873,10 @@
         <v>595</v>
       </c>
       <c r="J162" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>601</v>
@@ -18891,7 +18891,7 @@
         <v>603</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
@@ -18942,7 +18942,7 @@
         <v>53</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>55</v>
@@ -18963,7 +18963,7 @@
         <v>257</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>57</v>
@@ -19016,22 +19016,22 @@
     </row>
     <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>1207</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>1208</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>580</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>588</v>
@@ -19137,7 +19137,7 @@
         <v>56</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O165" s="4" t="s">
         <v>59</v>
@@ -19238,7 +19238,7 @@
   <dimension ref="A1:AZ165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19457,7 +19457,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -19508,7 +19508,7 @@
     <row r="3" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
-        <v>1105</v>
+        <v>1212</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1014</v>
@@ -19567,22 +19567,22 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1188</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -19632,19 +19632,19 @@
     <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1192</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1193</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
@@ -21521,7 +21521,7 @@
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
     </row>
-    <row r="21" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>578</v>
@@ -22465,7 +22465,7 @@
       <c r="AY28" s="3"/>
       <c r="AZ28" s="3"/>
     </row>
-    <row r="29" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>578</v>
@@ -23631,7 +23631,7 @@
       <c r="AY38" s="3"/>
       <c r="AZ38" s="3"/>
     </row>
-    <row r="39" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>117</v>
@@ -24559,7 +24559,7 @@
       <c r="AY46" s="3"/>
       <c r="AZ46" s="3"/>
     </row>
-    <row r="47" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>117</v>
@@ -25487,7 +25487,7 @@
       <c r="AY54" s="3"/>
       <c r="AZ54" s="3"/>
     </row>
-    <row r="55" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>117</v>
@@ -29031,7 +29031,7 @@
       <c r="AY104" s="3"/>
       <c r="AZ104" s="3"/>
     </row>
-    <row r="105" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>629</v>
@@ -30551,7 +30551,7 @@
       <c r="AY127" s="4"/>
       <c r="AZ127" s="4"/>
     </row>
-    <row r="128" spans="1:52" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>915</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>997</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>1007</v>
@@ -33233,10 +33233,10 @@
         <v>1054</v>
       </c>
       <c r="AG154" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AH154" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
@@ -33353,7 +33353,7 @@
         <v>1058</v>
       </c>
       <c r="AG155" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="AH155" s="4" t="s">
         <v>1061</v>
@@ -33379,43 +33379,43 @@
     </row>
     <row r="156" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="G156" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="H156" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>1116</v>
-      </c>
       <c r="I156" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J156" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>1120</v>
-      </c>
       <c r="K156" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -33472,25 +33472,25 @@
         <v>1008</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>968</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>267</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>198</v>
@@ -33537,91 +33537,91 @@
     </row>
     <row r="158" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>1129</v>
-      </c>
       <c r="D158" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>1133</v>
-      </c>
       <c r="G158" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="I158" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="I158" s="2" t="s">
-        <v>1137</v>
-      </c>
       <c r="J158" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K158" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="K158" s="2" t="s">
-        <v>1140</v>
-      </c>
       <c r="L158" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>1016</v>
       </c>
       <c r="P158" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Q158" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="Q158" s="3" t="s">
-        <v>1150</v>
-      </c>
       <c r="R158" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="S158" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="S158" s="3" t="s">
+      <c r="T158" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="T158" s="3" t="s">
+      <c r="U158" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="U158" s="3" t="s">
+      <c r="V158" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="V158" s="3" t="s">
-        <v>1156</v>
-      </c>
       <c r="W158" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="X158" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Y158" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="Y158" s="3" t="s">
+      <c r="Z158" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="Z158" s="3" t="s">
+      <c r="AA158" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AB158" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="AA158" s="3" t="s">
+      <c r="AC158" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="AB158" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AC158" s="3" t="s">
-        <v>1165</v>
       </c>
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
@@ -33653,7 +33653,7 @@
         <v>977</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>996</v>
@@ -33671,31 +33671,31 @@
         <v>947</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>924</v>
       </c>
       <c r="N159" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O159" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="O159" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="P159" s="4" t="s">
         <v>57</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R159" s="4" t="s">
         <v>256</v>
@@ -33710,10 +33710,10 @@
         <v>653</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="X159" s="4" t="s">
         <v>178</v>
@@ -33722,16 +33722,16 @@
         <v>60</v>
       </c>
       <c r="Z159" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AA159" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="AB159" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AC159" s="4" t="s">
         <v>1167</v>
-      </c>
-      <c r="AC159" s="4" t="s">
-        <v>1168</v>
       </c>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
@@ -33759,40 +33759,40 @@
     </row>
     <row r="160" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="F160" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="H160" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="I160" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="I160" s="2" t="s">
-        <v>1177</v>
-      </c>
       <c r="J160" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K160" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="L160" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>1019</v>
@@ -33871,25 +33871,25 @@
         <v>578</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>947</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="M161" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O161" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="O161" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="P161" s="4" t="s">
         <v>106</v>
@@ -33937,7 +33937,7 @@
     </row>
     <row r="162" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>581</v>
@@ -33964,10 +33964,10 @@
         <v>595</v>
       </c>
       <c r="J162" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K162" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>1202</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>601</v>
@@ -33982,7 +33982,7 @@
         <v>603</v>
       </c>
       <c r="P162" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
@@ -34033,7 +34033,7 @@
         <v>53</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>55</v>
@@ -34054,7 +34054,7 @@
         <v>257</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>57</v>
@@ -34107,22 +34107,22 @@
     </row>
     <row r="164" spans="1:52" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>1207</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>1208</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>580</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>588</v>
@@ -34228,7 +34228,7 @@
         <v>56</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O165" s="4" t="s">
         <v>59</v>

--- a/data/Iteration_TestData.xlsx
+++ b/data/Iteration_TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6087" uniqueCount="1215">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -3664,6 +3664,12 @@
   </si>
   <si>
     <t>vignesh_g</t>
+  </si>
+  <si>
+    <t>Network_Widget_Testing</t>
+  </si>
+  <si>
+    <t>Select_Categories_Value</t>
   </si>
 </sst>
 </file>
@@ -4136,10 +4142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ165"/>
+  <dimension ref="A1:AZ167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19180,6 +19186,120 @@
       <c r="AY165" s="4"/>
       <c r="AZ165" s="4"/>
     </row>
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+      <c r="AF166" s="3"/>
+      <c r="AG166" s="3"/>
+      <c r="AH166" s="3"/>
+      <c r="AI166" s="3"/>
+      <c r="AJ166" s="3"/>
+      <c r="AK166" s="3"/>
+      <c r="AL166" s="3"/>
+      <c r="AM166" s="3"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
+      <c r="AP166" s="3"/>
+      <c r="AQ166" s="3"/>
+      <c r="AR166" s="3"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="3"/>
+      <c r="AU166" s="3"/>
+      <c r="AV166" s="3"/>
+      <c r="AW166" s="3"/>
+      <c r="AX166" s="3"/>
+      <c r="AY166" s="3"/>
+      <c r="AZ166" s="3"/>
+    </row>
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
+      <c r="AB167" s="4"/>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="4"/>
+      <c r="AE167" s="4"/>
+      <c r="AF167" s="4"/>
+      <c r="AG167" s="4"/>
+      <c r="AH167" s="4"/>
+      <c r="AI167" s="4"/>
+      <c r="AJ167" s="4"/>
+      <c r="AK167" s="4"/>
+      <c r="AL167" s="4"/>
+      <c r="AM167" s="4"/>
+      <c r="AN167" s="4"/>
+      <c r="AO167" s="4"/>
+      <c r="AP167" s="4"/>
+      <c r="AQ167" s="4"/>
+      <c r="AR167" s="4"/>
+      <c r="AS167" s="4"/>
+      <c r="AT167" s="4"/>
+      <c r="AU167" s="4"/>
+      <c r="AV167" s="4"/>
+      <c r="AW167" s="4"/>
+      <c r="AX167" s="4"/>
+      <c r="AY167" s="4"/>
+      <c r="AZ167" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33 E59 E141 E143 F155">
@@ -19212,7 +19332,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139">
       <formula1>"avg,count,distinct,first,last,max,min,sum"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149 AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149 AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165 AF167">
       <formula1>"_______,...........,-----------.,-.-.-.-.-.-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J157">
@@ -19235,10 +19355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ165"/>
+  <dimension ref="A1:AZ167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34271,6 +34391,120 @@
       <c r="AY165" s="4"/>
       <c r="AZ165" s="4"/>
     </row>
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+      <c r="AF166" s="3"/>
+      <c r="AG166" s="3"/>
+      <c r="AH166" s="3"/>
+      <c r="AI166" s="3"/>
+      <c r="AJ166" s="3"/>
+      <c r="AK166" s="3"/>
+      <c r="AL166" s="3"/>
+      <c r="AM166" s="3"/>
+      <c r="AN166" s="3"/>
+      <c r="AO166" s="3"/>
+      <c r="AP166" s="3"/>
+      <c r="AQ166" s="3"/>
+      <c r="AR166" s="3"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="3"/>
+      <c r="AU166" s="3"/>
+      <c r="AV166" s="3"/>
+      <c r="AW166" s="3"/>
+      <c r="AX166" s="3"/>
+      <c r="AY166" s="3"/>
+      <c r="AZ166" s="3"/>
+    </row>
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
+      <c r="AB167" s="4"/>
+      <c r="AC167" s="4"/>
+      <c r="AD167" s="4"/>
+      <c r="AE167" s="4"/>
+      <c r="AF167" s="4"/>
+      <c r="AG167" s="4"/>
+      <c r="AH167" s="4"/>
+      <c r="AI167" s="4"/>
+      <c r="AJ167" s="4"/>
+      <c r="AK167" s="4"/>
+      <c r="AL167" s="4"/>
+      <c r="AM167" s="4"/>
+      <c r="AN167" s="4"/>
+      <c r="AO167" s="4"/>
+      <c r="AP167" s="4"/>
+      <c r="AQ167" s="4"/>
+      <c r="AR167" s="4"/>
+      <c r="AS167" s="4"/>
+      <c r="AT167" s="4"/>
+      <c r="AU167" s="4"/>
+      <c r="AV167" s="4"/>
+      <c r="AW167" s="4"/>
+      <c r="AX167" s="4"/>
+      <c r="AY167" s="4"/>
+      <c r="AZ167" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139">
@@ -34306,7 +34540,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA149">
       <formula1>"...........,-----------.,-.-.-.-.-.-,_______"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA151 AA153 AF155 AF157 AF159 AF161 AF163 AF165 AF167">
       <formula1>"_______,...........,-----------.,-.-.-.-.-.-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L157">
